--- a/mappings/outputs-solarchem-mapping.xlsx
+++ b/mappings/outputs-solarchem-mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-ontology/knowledge-graph/mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-kg/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EEF08-CCAB-944E-929E-81A8308F6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF4360A-3AE9-3B46-A3B3-E33786A36F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>format</t>
   </si>
   <si>
-    <t>data/catalystsdata.csv</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
@@ -838,6 +835,9 @@
   </si>
   <si>
     <t>{ch3oh_selectivity_molg}</t>
+  </si>
+  <si>
+    <t>../mappings/data/catalystsdata.csv</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1335,55 +1335,55 @@
         <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A112" activeCellId="2" sqref="A108 A110 A112"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,1234 +1452,1234 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2718,618 +2718,618 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A261" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
@@ -3372,7 +3372,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -3386,13 +3386,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="7"/>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
@@ -3416,13 +3416,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7"/>
@@ -3431,13 +3431,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7"/>
@@ -3446,13 +3446,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3460,13 +3460,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3475,13 +3475,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3490,13 +3490,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3520,13 +3520,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3535,13 +3535,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3550,13 +3550,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3595,13 +3595,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3610,13 +3610,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -3655,13 +3655,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -3670,3609 +3670,3609 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C161" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C165" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C168" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C175" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C176" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C177" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C178" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C179" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C180" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C181" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C182" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C183" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C184" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C185" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C188" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C190" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C192" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C197" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C198" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C199" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C200" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C201" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C202" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C203" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C204" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C205" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C206" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C207" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C208" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C209" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C210" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C211" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C212" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C213" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C214" t="s">
         <v>174</v>
       </c>
-      <c r="C214" t="s">
-        <v>175</v>
-      </c>
       <c r="D214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C215" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C216" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C217" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C218" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C219" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C220" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C221" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C222" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C223" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C224" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C225" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C226" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C227" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C228" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C229" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C230" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B231" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C231" t="s">
         <v>174</v>
       </c>
-      <c r="C231" t="s">
-        <v>175</v>
-      </c>
       <c r="D231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C232" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C233" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C234" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C235" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C236" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C237" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C238" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C239" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C240" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C241" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C242" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C243" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C244" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C245" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C246" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C247" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B248" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C248" t="s">
         <v>174</v>
       </c>
-      <c r="C248" t="s">
-        <v>175</v>
-      </c>
       <c r="D248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C249" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C250" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C251" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C252" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C253" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C254" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C255" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C256" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D256" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C257" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C258" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D258" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C259" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C260" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C261" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C262" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C263" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C264" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D265" s="10"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D269" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D270" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E270" s="7"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D271" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C274" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C275" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C276" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D276" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C277" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C278" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C279" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B280" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C280" t="s">
         <v>262</v>
       </c>
-      <c r="C280" t="s">
-        <v>263</v>
-      </c>
       <c r="D280" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C281" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D281" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C282" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D282" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C283" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D283" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/outputs-solarchem-mapping.xlsx
+++ b/mappings/outputs-solarchem-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-kg/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF4360A-3AE9-3B46-A3B3-E33786A36F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8183B2-6F1F-1248-84A7-4FCA1C2F5FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
     <t>{ch3oh_selectivity_molg}</t>
   </si>
   <si>
-    <t>../mappings/data/catalystsdata.csv</t>
+    <t>../data/processed/catalystsdata.csv</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3343,7 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>

--- a/mappings/outputs-solarchem-mapping.xlsx
+++ b/mappings/outputs-solarchem-mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiglesias/GitHub/solarchem-kg/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA4DE40-F300-534F-B3BD-7CF2B168A090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A6FB4-2F24-0847-8574-70B5F693D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1040" windowWidth="27320" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1040" windowWidth="27320" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefix" sheetId="1" r:id="rId1"/>
@@ -1925,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:B18"/>
     </sheetView>
   </sheetViews>
@@ -6011,8 +6011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H465"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" zoomScale="118" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C468" sqref="C468"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="118" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11932,7 +11932,7 @@
       <c r="B437" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D437" t="s">
@@ -12038,7 +12038,7 @@
       <c r="B445" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="8" t="s">
         <v>155</v>
       </c>
       <c r="D445" t="s">
@@ -12144,7 +12144,7 @@
       <c r="B453" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="8" t="s">
         <v>156</v>
       </c>
       <c r="D453" t="s">
@@ -12250,7 +12250,7 @@
       <c r="B461" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D461" t="s">
@@ -12312,6 +12312,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C437" r:id="rId1" xr:uid="{417583C1-8A1D-8C48-A1B6-CA56C82D2F9B}"/>
+    <hyperlink ref="C445" r:id="rId2" xr:uid="{335DF4F1-6AFF-8D45-9015-11D7752A64B5}"/>
+    <hyperlink ref="C453" r:id="rId3" xr:uid="{7F4E54EB-52FF-0E4A-AE12-4D5484BC8082}"/>
+    <hyperlink ref="C461" r:id="rId4" xr:uid="{153C3496-D712-704D-8289-A6D98937227A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
